--- a/output/sites/clustering with PCs/clust_PCs_percent_sites.xlsx
+++ b/output/sites/clustering with PCs/clust_PCs_percent_sites.xlsx
@@ -383,10 +383,10 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D2" t="n">
-        <v>18.5185185185185</v>
+        <v>25.9259259259259</v>
       </c>
     </row>
     <row r="3">
@@ -397,10 +397,10 @@
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D3" t="n">
-        <v>33.3333333333333</v>
+        <v>37.037037037037</v>
       </c>
     </row>
     <row r="4">
@@ -411,10 +411,10 @@
         <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D4" t="n">
-        <v>33.3333333333333</v>
+        <v>25.9259259259259</v>
       </c>
     </row>
     <row r="5">
@@ -425,10 +425,10 @@
         <v>4</v>
       </c>
       <c r="C5" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D5" t="n">
-        <v>14.8148148148148</v>
+        <v>11.1111111111111</v>
       </c>
     </row>
     <row r="6">
@@ -439,10 +439,10 @@
         <v>1</v>
       </c>
       <c r="C6" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D6" t="n">
-        <v>34.4827586206897</v>
+        <v>37.9310344827586</v>
       </c>
     </row>
     <row r="7">
@@ -453,10 +453,10 @@
         <v>2</v>
       </c>
       <c r="C7" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="D7" t="n">
-        <v>31.0344827586207</v>
+        <v>13.7931034482759</v>
       </c>
     </row>
     <row r="8">
@@ -467,10 +467,10 @@
         <v>3</v>
       </c>
       <c r="C8" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D8" t="n">
-        <v>20.6896551724138</v>
+        <v>17.2413793103448</v>
       </c>
     </row>
     <row r="9">
@@ -481,10 +481,10 @@
         <v>4</v>
       </c>
       <c r="C9" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="D9" t="n">
-        <v>13.7931034482759</v>
+        <v>31.0344827586207</v>
       </c>
     </row>
   </sheetData>
